--- a/src/test/resources/LoginData.xlsx
+++ b/src/test/resources/LoginData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="14">
   <si>
     <t>Email_ID</t>
   </si>

--- a/src/test/resources/LoginData.xlsx
+++ b/src/test/resources/LoginData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="14">
   <si>
     <t>Email_ID</t>
   </si>

--- a/src/test/resources/LoginData.xlsx
+++ b/src/test/resources/LoginData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="14">
   <si>
     <t>Email_ID</t>
   </si>

--- a/src/test/resources/LoginData.xlsx
+++ b/src/test/resources/LoginData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="14">
   <si>
     <t>Email_ID</t>
   </si>

--- a/src/test/resources/LoginData.xlsx
+++ b/src/test/resources/LoginData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="14">
   <si>
     <t>Email_ID</t>
   </si>
